--- a/output/Nintendo Music ja-JP.xlsx
+++ b/output/Nintendo Music ja-JP.xlsx
@@ -12410,7 +12410,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ボスバトル/クッパJr.</t>
+          <t>クッパJr./ボスバトル</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ギャラクシーツアー/テレサ</t>
+          <t>テレサ/ギャラクシーツアー</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -13310,7 +13310,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ギャラクシーツアー/クッパJr.</t>
+          <t>クッパJr./ギャラクシーツアー</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -16639,7 +16639,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ミファー/バトル</t>
+          <t>バトル/ミファー</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ミファー/バトル</t>
+          <t>バトル/ミファー</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ハイラルの人々/デクの樹</t>
+          <t>デクの樹/ハイラルの人々</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>リーバル/英傑たちの詩</t>
+          <t>英傑たちの詩/リーバル</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>カッシーワ/リーバル/英傑たちの詩</t>
+          <t>カッシーワ/英傑たちの詩/リーバル</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>英傑たちの詩/ダルケル</t>
+          <t>ダルケル/英傑たちの詩</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21067,7 +21067,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>カッシーワ/英傑たちの詩/ダルケル</t>
+          <t>カッシーワ/ダルケル/英傑たちの詩</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>バトルモード/テレサ</t>
+          <t>テレサ/バトルモード</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>歴代コース/テレサ</t>
+          <t>テレサ/歴代コース</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -26212,7 +26212,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>歴代コース/ロゼッタ</t>
+          <t>ロゼッタ/歴代コース</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -26503,7 +26503,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>キャッピー/世界の国々</t>
+          <t>世界の国々/キャッピー</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>キャッピー/世界の国々</t>
+          <t>世界の国々/キャッピー</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -28297,7 +28297,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ポリーン/世界の国々</t>
+          <t>世界の国々/ポリーン</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ポリーン/世界の国々</t>
+          <t>世界の国々/ポリーン</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -29789,7 +29789,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>クッパ/世界の国々</t>
+          <t>世界の国々/クッパ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -29857,7 +29857,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>クッパ/世界の国々</t>
+          <t>世界の国々/クッパ</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>クッパ/世界の国々</t>
+          <t>世界の国々/クッパ</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -31392,7 +31392,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>デデデ大王/The アルティメットチョイス</t>
+          <t>The アルティメットチョイス/デデデ大王</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -31426,7 +31426,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>デデデ大王/The アルティメットチョイス/アナザーディメンションヒーローズ</t>
+          <t>The アルティメットチョイス/デデデ大王/アナザーディメンションヒーローズ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>The アルティメットチョイス/三魔官シスターズ/アナザーディメンションヒーローズ</t>
+          <t>三魔官シスターズ/The アルティメットチョイス/アナザーディメンションヒーローズ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -32914,7 +32914,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>The アルティメットチョイス/三魔官シスターズ</t>
+          <t>三魔官シスターズ/The アルティメットチョイス</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>The アルティメットチョイス/三魔官シスターズ</t>
+          <t>三魔官シスターズ/The アルティメットチョイス</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -34064,7 +34064,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>デデデ大王/メタナイト</t>
+          <t>メタナイト/デデデ大王</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -35628,7 +35628,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>デデデ大王/The アルティメットチョイス</t>
+          <t>The アルティメットチョイス/デデデ大王</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -36172,7 +36172,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>デデデ大王/The アルティメットチョイス/メタナイト/アナザーディメンションヒーローズ</t>
+          <t>メタナイト/The アルティメットチョイス/デデデ大王/アナザーディメンションヒーローズ</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -36274,7 +36274,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>デデデ大王/アナザーディメンションヒーローズ</t>
+          <t>アナザーディメンションヒーローズ/デデデ大王</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -36308,7 +36308,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>メタナイト/アナザーディメンションヒーローズ</t>
+          <t>アナザーディメンションヒーローズ/メタナイト</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -36648,7 +36648,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>The アルティメットチョイス/三魔官シスターズ/ドリームフレンズでGO！/アナザーディメンションヒーローズ</t>
+          <t>三魔官シスターズ/The アルティメットチョイス/アナザーディメンションヒーローズ/ドリームフレンズでGO！</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -41966,7 +41966,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>モーリー・ロドリー/島のなかまたち</t>
+          <t>島のなかまたち/モーリー・ロドリー</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -42034,7 +42034,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>モーリー・ロドリー/島のなかまたち</t>
+          <t>島のなかまたち/モーリー・ロドリー</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -48030,7 +48030,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>とたけけ（ライヴ版）/島のなかまたち</t>
+          <t>島のなかまたち/とたけけ（ライヴ版）</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -52681,7 +52681,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -52817,7 +52817,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -52851,7 +52851,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -52919,7 +52919,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -52953,7 +52953,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -53021,7 +53021,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -53089,7 +53089,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -53191,7 +53191,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -53361,7 +53361,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ヒーローモード/DJ Octavio</t>
+          <t>DJ Octavio/ヒーローモード</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -54687,7 +54687,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>シオカラーズ/すりみ連合/ヒーローモード</t>
+          <t>すりみ連合/シオカラーズ/ヒーローモード</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -55095,7 +55095,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>シオカラーズ/フェス</t>
+          <t>フェス/シオカラーズ</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -55231,7 +55231,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>シオカラーズ/フェス</t>
+          <t>フェス/シオカラーズ</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -55265,7 +55265,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>シオカラーズ/フェス</t>
+          <t>フェス/シオカラーズ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -55803,7 +55803,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ナワバトラー/バンカラ街</t>
+          <t>バンカラ街/ナワバトラー</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -56234,7 +56234,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ネモ/チャンピオンロード</t>
+          <t>ネモ/ポケモンバトル/チャンピオンロード</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -56506,7 +56506,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ポケモンバトル/レジェンドルート/ペパー</t>
+          <t>レジェンドルート/ポケモンバトル/ペパー</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -56868,7 +56868,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ポケモンバトル/スターダスト★ストリート</t>
+          <t>スターダスト★ストリート/ポケモンバトル</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -56902,7 +56902,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>フィールド/クラベル</t>
+          <t>クラベル/フィールド</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -56970,7 +56970,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>レジェンドルート/オーリム博士・フトゥー博士</t>
+          <t>オーリム博士・フトゥー博士/レジェンドルート</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -57832,7 +57832,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ポケモンバトル/レジェンドルート/ペパー</t>
+          <t>レジェンドルート/ポケモンバトル/ペパー</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -58406,7 +58406,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>クラベル/スターダスト★ストリート</t>
+          <t>スターダスト★ストリート/クラベル</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -58474,7 +58474,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ポケモンバトル/スターダスト★ストリート</t>
+          <t>スターダスト★ストリート/ポケモンバトル</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -58576,7 +58576,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ポケモンバトル/スターダスト★ストリート</t>
+          <t>スターダスト★ストリート/ポケモンバトル</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -59290,7 +59290,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ネモ/チャンピオンロード</t>
+          <t>ネモ/ポケモンバトル/チャンピオンロード</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -59358,7 +59358,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ポケモンバトル/クラベル/スターダスト★ストリート</t>
+          <t>クラベル/スターダスト★ストリート/ポケモンバトル</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -59392,7 +59392,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ボタン/クラベル/スターダスト★ストリート</t>
+          <t>ボタン/スターダスト★ストリート/クラベル</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -59426,7 +59426,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ボタン/スターダスト★ストリート</t>
+          <t>ボタン/スターダスト★ストリート/ポケモンバトル</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -59460,7 +59460,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ボタン/クラベル/スターダスト★ストリート</t>
+          <t>ボタン/スターダスト★ストリート/クラベル</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -59494,7 +59494,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>レジェンドルート/ボタン/ペパー</t>
+          <t>ボタン/レジェンドルート/ペパー</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -59592,7 +59592,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/コライドン・ミライドン</t>
+          <t>コライドン・ミライドン/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -59762,7 +59762,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/オーリム博士・フトゥー博士</t>
+          <t>オーリム博士・フトゥー博士/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -59796,7 +59796,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ザ・ホームウェイ/オーリム博士・フトゥー博士</t>
+          <t>オーリム博士・フトゥー博士/ポケモンバトル/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -59864,7 +59864,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/オーリム博士・フトゥー博士/ペパー</t>
+          <t>オーリム博士・フトゥー博士/ペパー/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -59898,7 +59898,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/オーリム博士・フトゥー博士</t>
+          <t>オーリム博士・フトゥー博士/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -59932,7 +59932,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/コライドン・ミライドン</t>
+          <t>コライドン・ミライドン/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -59966,7 +59966,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ザ・ホームウェイ/コライドン・ミライドン</t>
+          <t>ポケモンバトル/コライドン・ミライドン/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -60000,7 +60000,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/オーリム博士・フトゥー博士/ペパー</t>
+          <t>オーリム博士・フトゥー博士/ペパー/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -60034,7 +60034,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ザ・ホームウェイ/オーリム博士・フトゥー博士/ペパー</t>
+          <t>オーリム博士・フトゥー博士/ペパー/ザ・ホームウェイ</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -60068,7 +60068,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ネモ/コライドン・ミライドン/ザ・ホームウェイ/ペパー/ボタン</t>
+          <t>ネモ/ボタン/ザ・ホームウェイ/ペパー/コライドン・ミライドン</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -60102,7 +60102,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ネモ/コライドン・ミライドン/ザ・ホームウェイ/ペパー/ボタン</t>
+          <t>ネモ/ボタン/ザ・ホームウェイ/ペパー/コライドン・ミライドン</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -60426,7 +60426,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/ゼイユ/フィールド/スグリ</t>
+          <t>スグリ/ゼロの秘宝/フィールド/ゼイユ</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -60460,7 +60460,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ゼロの秘宝/スグリ</t>
+          <t>スグリ/ポケモンバトル/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -60494,7 +60494,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/オーガポン/フィールド</t>
+          <t>オーガポン/ゼロの秘宝/フィールド</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -60732,7 +60732,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -60766,7 +60766,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ゼイユ/オーガポン/スグリ/ゼロの秘宝/フィールド</t>
+          <t>ゼロの秘宝/オーガポン/フィールド/スグリ/ゼイユ</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -60970,7 +60970,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -61106,7 +61106,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ゼロの秘宝/スグリ</t>
+          <t>スグリ/ポケモンバトル/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -61140,7 +61140,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ポケモンバトル/オーガポン/ゼロの秘宝</t>
+          <t>ポケモンバトル/ゼロの秘宝/オーガポン</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -61242,7 +61242,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -61616,7 +61616,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -62024,7 +62024,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -62058,7 +62058,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ゼロの秘宝/スグリ</t>
+          <t>スグリ/ポケモンバトル/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -62092,7 +62092,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -62160,7 +62160,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/フィールド/テラパゴス</t>
+          <t>テラパゴス/ゼロの秘宝/フィールド</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -62194,7 +62194,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ/テラパゴス</t>
+          <t>スグリ/テラパゴス/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -62228,7 +62228,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ゼロの秘宝/スグリ/テラパゴス</t>
+          <t>スグリ/テラパゴス/ポケモンバトル/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -62262,7 +62262,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/テラパゴス</t>
+          <t>テラパゴス/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -62296,7 +62296,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ/テラパゴス</t>
+          <t>スグリ/テラパゴス/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -62330,7 +62330,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ゼロの秘宝/スグリ/テラパゴス</t>
+          <t>スグリ/テラパゴス/ポケモンバトル/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -62364,7 +62364,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/テラパゴス</t>
+          <t>テラパゴス/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/スグリ</t>
+          <t>スグリ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -62500,7 +62500,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/モモワロウ</t>
+          <t>モモワロウ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/モモワロウ</t>
+          <t>モモワロウ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -62568,7 +62568,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/モモワロウ/ゼイユ</t>
+          <t>モモワロウ/ゼロの秘宝/ゼイユ</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -62602,7 +62602,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>ゼロの秘宝/モモワロウ</t>
+          <t>モモワロウ/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -62636,7 +62636,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>ポケモンバトル/ゼロの秘宝/モモワロウ</t>
+          <t>モモワロウ/ポケモンバトル/ゼロの秘宝</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -68036,7 +68036,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -68138,7 +68138,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -68270,7 +68270,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ハナチャン/コース</t>
+          <t>コース/ハナチャン</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -68712,7 +68712,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -68776,7 +68776,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>コース/クッパJr.</t>
+          <t>クッパJr./コース</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -69406,7 +69406,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -69644,7 +69644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー/テレサ</t>
+          <t>ワンダー/ミュージックコース/テレサ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -69678,7 +69678,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -70210,7 +70210,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -70244,7 +70244,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>クッパ/ワンダー</t>
+          <t>ワンダー/クッパ</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -70312,7 +70312,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー/クッパ</t>
+          <t>クッパ/ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -70534,7 +70534,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ミュージックコース/ワンダー</t>
+          <t>ワンダー/ミュージックコース</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -74275,7 +74275,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ナワバリバトル/カレントリップ</t>
+          <t>カレントリップ/ナワバリバトル</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -74309,7 +74309,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ナワバリバトル/カレントリップ</t>
+          <t>カレントリップ/ナワバリバトル</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -74717,7 +74717,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wet Floor/ハイカラスクエア</t>
+          <t>ハイカラスクエア/Wet Floor</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -74921,7 +74921,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cala Marley/ハイカラスクエア</t>
+          <t>ハイカラスクエア/Cala Marley</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -74989,7 +74989,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -75023,7 +75023,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -75261,7 +75261,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>クマサン商会/サーモンラン</t>
+          <t>サーモンラン/クマサン商会</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -75295,7 +75295,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>フェス/ハイカラスクエア</t>
+          <t>ハイカラスクエア/フェス</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -76213,7 +76213,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ヒーローモード/DJ Octavio</t>
+          <t>DJ Octavio/ヒーローモード</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -76247,7 +76247,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ヒーローモード/DJ Octavio</t>
+          <t>DJ Octavio/ヒーローモード</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -76417,7 +76417,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -76553,7 +76553,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -76587,7 +76587,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -76621,7 +76621,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -76655,7 +76655,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -76689,7 +76689,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -76723,7 +76723,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -76757,7 +76757,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -76791,7 +76791,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -76825,7 +76825,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -76859,7 +76859,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -76893,7 +76893,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -76927,7 +76927,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -76995,7 +76995,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -77097,7 +77097,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>テンタクルズ/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/テンタクルズ</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -77131,7 +77131,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>テンタクルズ/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/テンタクルズ</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -77165,7 +77165,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dedf1sh/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/Dedf1sh</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -77301,7 +77301,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>テンタクルズ/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/テンタクルズ</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -77335,7 +77335,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>テンタクルズ/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/テンタクルズ</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -77437,7 +77437,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>テンタクルズ/オクト・エキスパンション</t>
+          <t>オクト・エキスパンション/テンタクルズ</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -86972,7 +86972,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ヨッシー/コース</t>
+          <t>コース/ヨッシー</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -87006,7 +87006,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ヨッシー/コース</t>
+          <t>コース/ヨッシー</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -87168,7 +87168,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ヨッシー/コース</t>
+          <t>コース/ヨッシー</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -89346,7 +89346,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ダンジョン/デクの樹</t>
+          <t>デクの樹/ダンジョン</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
